--- a/VariableExplanationV2_ching.xlsx
+++ b/VariableExplanationV2_ching.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ching/Downloads/Insurance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ching/tbddd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="all_columns" sheetId="16" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="488">
   <si>
     <t>Policy Number</t>
   </si>
@@ -1881,12 +1881,258 @@
   <si>
     <t>多個險種的加總</t>
   </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>{0, 1, 2, 8000, 20000, -8000, 3, 10000, 30000, 15000, -3, -1}</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_00I</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_01A</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_01J</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_02K</t>
+  </si>
+  <si>
+    <t>{0, 1, 2, 3, 10000, 15000, 20000, 100000, 30000, -50000, 8000, -8000, -35000, 50000, -30000, -20000, -100000, -15000, -10000, -1, -2}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_03L</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_04M</t>
+  </si>
+  <si>
+    <t>{0, -20000, 20000, 8000, 5000, -3000, 30000, 50000, 10000, -30000, -50000, 3000, 15000, -5000}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_05E</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_05N</t>
+  </si>
+  <si>
+    <t>{0, 10, -20, 20, -10}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_06F</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_07P</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_08H</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_09@</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_09I</t>
+  </si>
+  <si>
+    <t>{7510}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_10A</t>
+  </si>
+  <si>
+    <t>{0, 10, 100, -10}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_12L</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_14E</t>
+  </si>
+  <si>
+    <t>{0, 1, 100, 10, 20, -10, 155, 124}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_14N</t>
+  </si>
+  <si>
+    <t>{0, 10, 20, -10}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_15F</t>
+  </si>
+  <si>
+    <t>{0, 100, 70, 40, -50, 50, -40, -70, -100}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_15O</t>
+  </si>
+  <si>
+    <t>{-224, 1, 2, -255, -124, -155, 12455, -22455, -2, 22455, -12455, 155, 124, -1, 255}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_16G</t>
+  </si>
+  <si>
+    <t>{0, 10000, 5000}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_16P</t>
+  </si>
+  <si>
+    <t>{0, 10000, -5000, 5000}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_18@</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_18I</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_20B</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_20K</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_25G</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_26H</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_27I</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_29B</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_29K</t>
+  </si>
+  <si>
+    <t>{0, 1, 10}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_32N</t>
+  </si>
+  <si>
+    <t>{0, 24, 48}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_33F</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_33O</t>
+  </si>
+  <si>
+    <t>{0, 24, 48, -24}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_34P</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_35H</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_36I</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_37J</t>
+  </si>
+  <si>
+    <t>{10000, 30000}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_40M</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_41E</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_41N</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_42F</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_45@</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_46A</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_47B</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_51O</t>
+  </si>
+  <si>
+    <t>{1, 2, -2, -1}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_55J</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_56B</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_56K</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_57C</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_57L</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_65K</t>
+  </si>
+  <si>
+    <t>{-100, 50, 100}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_66C</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_66L</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_67D</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_68E</t>
+  </si>
+  <si>
+    <t>{10}</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_68N</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_70G</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_70P</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_71H</t>
+  </si>
+  <si>
+    <t>Insurance_Coverage_72@</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,6 +2216,11 @@
       <name val="MingLiU"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2084,7 +2335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2150,30 +2401,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2484,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2622,23 +2877,23 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3118,23 +3373,23 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="40">
         <v>281678</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -3661,8 +3916,8 @@
   </sheetPr>
   <dimension ref="A1:XFA43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -20326,7 +20581,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="42" t="s">
         <v>404</v>
       </c>
     </row>
@@ -20405,7 +20660,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -20469,7 +20724,7 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="32" t="s">
         <v>223</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -20479,7 +20734,7 @@
         <v>245</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="34" t="s">
         <v>350</v>
       </c>
     </row>
@@ -20617,7 +20872,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B21"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20644,8 +20899,8 @@
       <c r="D1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>354</v>
       </c>
     </row>
@@ -20658,10 +20913,10 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -20676,10 +20931,10 @@
       <c r="D3" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -20690,10 +20945,10 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -20708,10 +20963,10 @@
       <c r="D5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -20726,10 +20981,10 @@
       <c r="D6" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -20738,14 +20993,14 @@
       <c r="B7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>237</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -20760,10 +21015,10 @@
       <c r="D8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -20772,14 +21027,14 @@
       <c r="B9" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>239</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -20792,10 +21047,10 @@
         <v>201</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
@@ -20808,10 +21063,10 @@
         <v>204</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -20826,10 +21081,10 @@
         <v>204</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -20837,20 +21092,20 @@
       <c r="A13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="37">
         <v>-1</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="36" t="s">
         <v>353</v>
       </c>
     </row>
@@ -20865,10 +21120,10 @@
         <v>201</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -20881,10 +21136,10 @@
         <v>201</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
@@ -20897,10 +21152,10 @@
         <v>204</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -20917,10 +21172,10 @@
       <c r="D17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -20935,10 +21190,10 @@
         <v>204</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -20953,10 +21208,10 @@
         <v>241</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -20971,10 +21226,10 @@
       <c r="D20" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -20983,14 +21238,14 @@
       <c r="B21" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B20"/>
@@ -21004,8 +21259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21059,7 +21314,7 @@
         <v>203</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>405</v>
       </c>
     </row>
@@ -21130,7 +21385,7 @@
         <v>204</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>405</v>
       </c>
     </row>
@@ -21145,7 +21400,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21250,18 +21505,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="133.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -21274,774 +21530,1116 @@
       <c r="D1" s="18" t="s">
         <v>126</v>
       </c>
+      <c r="E1" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="E9" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E13" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="E14" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>147</v>
       </c>
+      <c r="E15" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>55</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>152</v>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>56</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>140</v>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" t="s">
+        <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>1</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>2</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>3</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>4</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>5</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="38"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>7</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>9</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <v>10</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <v>11</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>152</v>
       </c>
+      <c r="E18" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" t="s">
+        <v>432</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="F24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D25" s="39" t="s">
         <v>155</v>
       </c>
+      <c r="E25" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B26" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C26" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D26" s="39" t="s">
         <v>145</v>
       </c>
+      <c r="E26" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="F27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="F30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C32" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D32" s="39" t="s">
         <v>145</v>
       </c>
+      <c r="E32" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B33" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C33" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D33" s="39" t="s">
         <v>145</v>
       </c>
+      <c r="E33" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B34" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C34" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D34" s="39" t="s">
         <v>145</v>
       </c>
+      <c r="E34" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B35" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C35" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D35" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E35" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C36" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D36" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E36" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="F36" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D37" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E37" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="F37" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>42</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>45</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>46</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="38"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>47</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="38"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
-        <v>48</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>49</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>52</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>53</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>54</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38" t="s">
+        <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="F39" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E40" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E41" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F41" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E42" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F42" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>23</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="19" t="s">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>42</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E43" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="F43" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E44" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="F44" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E45" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F45" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>28</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="19" t="s">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E46" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>29</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>140</v>
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="F47" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>30</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>155</v>
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>37</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>174</v>
+    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" t="s">
+        <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>38</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>140</v>
+    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>140</v>
+        <v>187</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="F52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>52</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>53</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>54</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="39" t="s">
         <v>140</v>
       </c>
+      <c r="E55" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="F55" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>41</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="19" t="s">
+    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="F56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E57" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>43</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>44</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -22054,8 +22652,14 @@
       <c r="D58" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E58" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -22068,8 +22672,14 @@
       <c r="D59" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E59" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="F59" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22082,8 +22692,14 @@
       <c r="D60" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="E60" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="F60" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22095,11 +22711,17 @@
       </c>
       <c r="D61" s="19" t="s">
         <v>140</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="F61" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D61">
-    <sortCondition ref="B2:B61"/>
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VariableExplanationV2_ching.xlsx
+++ b/VariableExplanationV2_ching.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all_columns" sheetId="16" r:id="rId1"/>
     <sheet name="Policy" sheetId="7" r:id="rId2"/>
     <sheet name="Claim" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="21" r:id="rId4"/>
-    <sheet name="train_renewal" sheetId="14" r:id="rId5"/>
-    <sheet name="test_renewal" sheetId="15" r:id="rId6"/>
-    <sheet name="車系代號" sheetId="12" r:id="rId7"/>
-    <sheet name="險種分類及自負額說明" sheetId="13" r:id="rId8"/>
+    <sheet name="Cov" sheetId="21" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="22" r:id="rId5"/>
+    <sheet name="train_renewal" sheetId="14" r:id="rId6"/>
+    <sheet name="test_renewal" sheetId="15" r:id="rId7"/>
+    <sheet name="車系代號" sheetId="12" r:id="rId8"/>
+    <sheet name="險種分類及自負額說明" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$F$1:$G$20</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="566">
   <si>
     <t>Policy Number</t>
   </si>
@@ -2146,6 +2147,9 @@
     <t>get dummy</t>
   </si>
   <si>
+    <t>Claim_Status_(close,_open,_reopen_etc)</t>
+  </si>
+  <si>
     <t>one hot</t>
   </si>
   <si>
@@ -2219,6 +2223,144 @@
   </si>
   <si>
     <t>'Premium'</t>
+  </si>
+  <si>
+    <t>f620dd41a79f7ae94e890b90e18157c880957458</t>
+  </si>
+  <si>
+    <t>c621533a8b9f6634685932d7f147d3e83b7c7d34</t>
+  </si>
+  <si>
+    <t>ba98a1aa6351f1607f55f1032cc2d95ca227c651</t>
+  </si>
+  <si>
+    <t>4c811c9ac3edc06e822ff77aaff8dc42957be6e1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>05b378cead727d84ee462dab852fb39cdaa1a93b</t>
+  </si>
+  <si>
+    <t>ce1c3a388a507fdadc289871e6ba18e6af033a5a</t>
+  </si>
+  <si>
+    <t>8ede3b2658db1306b139ff7d4d77b5e7c3183610</t>
+  </si>
+  <si>
+    <t>288117f303452985e81609cf31d1badb94934e69</t>
+  </si>
+  <si>
+    <t>3cbdd16f643f3677c4d79c372798f60f2d2db268</t>
+  </si>
+  <si>
+    <t>6fc6b8459581d9652eb2e578d8cbcb3057695633</t>
+  </si>
+  <si>
+    <t>fd804d0ce2593661297056581c156c94a39fd7b8</t>
+  </si>
+  <si>
+    <t>7a910da969364033e2d3c7c73e15b244611eb368</t>
+  </si>
+  <si>
+    <t>42bb0d718d248ac4c7c0dec289b32affc4ea2a0f</t>
+  </si>
+  <si>
+    <t>b0f75c9fbcbed9923dc2947410f869f08069d707</t>
+  </si>
+  <si>
+    <t>66583d854f71aa061c472bbbb3d7da59d70a07f6</t>
+  </si>
+  <si>
+    <t>97816b7d4bc89ec257d0e8f0edb5013d35b617e3</t>
+  </si>
+  <si>
+    <t>b771b208d897ce410b4182ad993af3cf210af7d4</t>
+  </si>
+  <si>
+    <t>5b8b8bfe95571e0c9097701e1a2cac8bd8367f0a</t>
+  </si>
+  <si>
+    <t>4a59948d56a3435a1b0e53cc9417c9cc5f73c2da</t>
+  </si>
+  <si>
+    <t>ecee2cd64aae5abd2e50ab63d3644d9e810e5f71</t>
+  </si>
+  <si>
+    <t>2b5ce34c331f7b0e86a774f471e54ad7fafe9f1e</t>
+  </si>
+  <si>
+    <t>b672f1581c089afea867fefa2941c09e41472ef9</t>
+  </si>
+  <si>
+    <t>c55d4a581025ec8500f3cf416fcf7b3868274179</t>
+  </si>
+  <si>
+    <t>d52e6b3e2692c68ce9b9f58acb62925f5c12054b</t>
+  </si>
+  <si>
+    <t>3f542a85b7d6ec4d6afea0f6c8a06130b4386557</t>
+  </si>
+  <si>
+    <t>56c47c0374a89deb6c1d9a4ba8666e722c09fee9</t>
+  </si>
+  <si>
+    <t>d14fe7fa7c3e80beaa03b326c777ae149ebe442a</t>
+  </si>
+  <si>
+    <t>160d6b5ac682f1556e9a6a0a65bcd92df107cdcc</t>
+  </si>
+  <si>
+    <t>b46d91eb460d6f0ed1456a61cfa63028af838c4d</t>
+  </si>
+  <si>
+    <t>34dc55aee51fcb07e2ee901bbe723341e490d906</t>
+  </si>
+  <si>
+    <t>f50786f6ea93fd3afda15b8381349818071153a0</t>
+  </si>
+  <si>
+    <t>f24ae181724ee92445d159bd57d3cc53a70f0a38</t>
+  </si>
+  <si>
+    <t>784df4ee3422d592c776cfac6d5374d117c97062</t>
+  </si>
+  <si>
+    <t>36d9fbea2b90631d62d21658ad173c95f9e29684</t>
+  </si>
+  <si>
+    <t>448dc8c0c9c96d14a51648d00dd81c97b313c134</t>
+  </si>
+  <si>
+    <t>1a9bddc122f2a2a7405ad3e6f394a78f02dab0ee</t>
+  </si>
+  <si>
+    <t>55c4bf5b50a35d6057dc17b366e03d2dd4b5e3ae</t>
+  </si>
+  <si>
+    <t>72bb54a972ca032601d6704d190daa99f5964164</t>
+  </si>
+  <si>
+    <t>91dbc1dc038186d8ab8ccdb3c9a35a3d1d28c187</t>
+  </si>
+  <si>
+    <t>4d250f3e40936a36b470f8819a9a55ce7c6b9d7c</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>e8ce526c61030175b6191f82554bd1847e7ae0e6</t>
+  </si>
+  <si>
+    <t>4e5367a93aeb2e82d0f62134e0003625350ea872</t>
+  </si>
+  <si>
+    <t>ac72ed5ce7454883e0838affd77e36151db335f4</t>
+  </si>
+  <si>
+    <t>In [404]:</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2371,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2389,8 +2531,39 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF303F9F"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2433,6 +2606,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2465,7 +2644,7 @@
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2591,6 +2770,19 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2904,8 +3096,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4081,8 +4273,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F20" activeCellId="1" sqref="F16 F20"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4139,7 +4331,7 @@
     </row>
     <row r="3" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>84</v>
@@ -4182,7 +4374,7 @@
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>491</v>
@@ -4209,7 +4401,7 @@
     </row>
     <row r="6" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>87</v>
@@ -4231,7 +4423,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>88</v>
@@ -4253,7 +4445,7 @@
     </row>
     <row r="8" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>89</v>
@@ -4321,7 +4513,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>491</v>
@@ -4367,7 +4559,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>491</v>
@@ -4413,7 +4605,7 @@
     </row>
     <row r="15" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>488</v>
@@ -20811,7 +21003,7 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>488</v>
@@ -20841,7 +21033,7 @@
         <v>488</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>97</v>
@@ -20866,7 +21058,7 @@
         <v>488</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>98</v>
@@ -20891,7 +21083,7 @@
         <v>488</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>99</v>
@@ -20942,7 +21134,7 @@
         <v>488</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>101</v>
@@ -21099,7 +21291,7 @@
     </row>
     <row r="28" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>491</v>
@@ -21150,7 +21342,7 @@
     </row>
     <row r="30" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>491</v>
@@ -21177,7 +21369,7 @@
     </row>
     <row r="31" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>491</v>
@@ -21226,10 +21418,10 @@
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>491</v>
@@ -21254,10 +21446,10 @@
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>490</v>
@@ -21677,7 +21869,7 @@
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="51" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>110</v>
@@ -21736,7 +21928,7 @@
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="46"/>
       <c r="D9" s="51" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="7" t="s">
@@ -21763,7 +21955,7 @@
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>493</v>
@@ -21801,7 +21993,7 @@
         <v>488</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>114</v>
@@ -21832,7 +22024,7 @@
         <v>488</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>115</v>
@@ -21863,7 +22055,7 @@
         <v>488</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>116</v>
@@ -21894,7 +22086,7 @@
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>488</v>
@@ -21923,10 +22115,10 @@
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>87</v>
@@ -21952,7 +22144,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="E16" s="36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>118</v>
@@ -22016,7 +22208,7 @@
         <v>488</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>120</v>
@@ -22044,10 +22236,10 @@
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>121</v>
@@ -22076,7 +22268,7 @@
         <v>488</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>122</v>
@@ -22196,8 +22388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -22208,49 +22400,49 @@
   <sheetData>
     <row r="1" spans="1:8" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="56" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F1" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>516</v>
-      </c>
       <c r="H1" s="57" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
       <c r="B2" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -22273,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H3" s="55">
         <v>503</v>
@@ -22299,7 +22491,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H4" s="55">
         <v>154</v>
@@ -22325,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H5" s="55">
         <v>337</v>
@@ -22351,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H6" s="55">
         <v>337</v>
@@ -22377,7 +22569,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H7" s="55">
         <v>509</v>
@@ -22386,25 +22578,25 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -22453,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H10" s="55">
         <v>11571</v>
@@ -22531,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H13" s="55">
         <v>13836</v>
@@ -22540,25 +22732,25 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -22581,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H15" s="55">
         <v>530</v>
@@ -22607,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H16" s="55">
         <v>265</v>
@@ -22633,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H17" s="55">
         <v>265</v>
@@ -22659,7 +22851,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H18" s="55">
         <v>265</v>
@@ -22685,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H19" s="55">
         <v>265</v>
@@ -22694,25 +22886,25 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -22735,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H21" s="55">
         <v>183</v>
@@ -22761,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H22" s="55">
         <v>183</v>
@@ -22787,7 +22979,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H23" s="55">
         <v>183</v>
@@ -22813,7 +23005,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H24" s="55">
         <v>183</v>
@@ -22839,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H25" s="55">
         <v>183</v>
@@ -22848,25 +23040,25 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -22889,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H27" s="55">
         <v>107</v>
@@ -22915,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H28" s="55">
         <v>107</v>
@@ -22941,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H29" s="55">
         <v>107</v>
@@ -22967,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H30" s="55">
         <v>107</v>
@@ -22993,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H31" s="55">
         <v>107</v>
@@ -23002,25 +23194,25 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -23043,7 +23235,7 @@
         <v>-12455</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H33" s="55">
         <v>1879</v>
@@ -23095,7 +23287,7 @@
         <v>255</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H35" s="55">
         <v>3321</v>
@@ -23156,25 +23348,25 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -23197,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H39" s="55">
         <v>3751</v>
@@ -23275,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H42" s="55">
         <v>3076</v>
@@ -23310,25 +23502,25 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
       <c r="B44" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F44" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G44" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H44" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -23351,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H45" s="55">
         <v>1590</v>
@@ -23377,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H46" s="55">
         <v>1590</v>
@@ -23403,7 +23595,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H47" s="55">
         <v>9538</v>
@@ -23464,25 +23656,25 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
       <c r="B50" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G50" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -23583,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H54" s="55">
         <v>1185</v>
@@ -23618,25 +23810,25 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="53"/>
       <c r="B56" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G56" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H56" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -23659,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H57" s="55">
         <v>22527</v>
@@ -23668,25 +23860,25 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="53"/>
       <c r="B58" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G58" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H58" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -23761,7 +23953,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H61" s="55">
         <v>5554</v>
@@ -23787,7 +23979,7 @@
         <v>-10</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H62" s="55">
         <v>778</v>
@@ -23813,7 +24005,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H63" s="55">
         <v>2222</v>
@@ -23822,25 +24014,25 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G64" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -23863,7 +24055,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H65" s="55">
         <v>411</v>
@@ -23941,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H68" s="55">
         <v>337</v>
@@ -23967,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H69" s="55">
         <v>411</v>
@@ -23976,25 +24168,25 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="53"/>
       <c r="B70" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F70" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G70" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H70" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -24017,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H71" s="55">
         <v>993</v>
@@ -24043,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H72" s="55">
         <v>1059</v>
@@ -24069,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H73" s="55">
         <v>1110</v>
@@ -24095,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H74" s="55">
         <v>993</v>
@@ -24121,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H75" s="55">
         <v>1059</v>
@@ -24130,25 +24322,25 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="53"/>
       <c r="B76" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D76" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F76" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G76" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H76" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -24171,7 +24363,7 @@
         <v>-2</v>
       </c>
       <c r="G77" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H77" s="55">
         <v>3406</v>
@@ -24197,7 +24389,7 @@
         <v>-1</v>
       </c>
       <c r="G78" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H78" s="55">
         <v>1504</v>
@@ -24223,7 +24415,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H79" s="55">
         <v>3342</v>
@@ -24249,7 +24441,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H80" s="55">
         <v>3342</v>
@@ -24275,7 +24467,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H81" s="55">
         <v>3342</v>
@@ -24284,25 +24476,25 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="53"/>
       <c r="B82" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D82" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F82" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H82" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -24325,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H83" s="55">
         <v>292</v>
@@ -24351,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H84" s="55">
         <v>325</v>
@@ -24377,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H85" s="55">
         <v>531</v>
@@ -24403,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H86" s="55">
         <v>443</v>
@@ -24429,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H87" s="55">
         <v>650</v>
@@ -24438,25 +24630,25 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="53"/>
       <c r="B88" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C88" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D88" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E88" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F88" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G88" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H88" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -24479,7 +24671,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H89" s="55">
         <v>1163</v>
@@ -24505,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H90" s="55">
         <v>1098</v>
@@ -24531,7 +24723,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H91" s="55">
         <v>1846</v>
@@ -24557,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H92" s="55">
         <v>658</v>
@@ -24583,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H93" s="55">
         <v>973</v>
@@ -24592,25 +24784,25 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="53"/>
       <c r="B94" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E94" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F94" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G94" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H94" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -24633,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H95" s="55">
         <v>19</v>
@@ -24659,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H96" s="55">
         <v>21</v>
@@ -24685,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H97" s="55">
         <v>21</v>
@@ -24711,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H98" s="55">
         <v>21</v>
@@ -24737,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H99" s="55">
         <v>21</v>
@@ -24746,25 +24938,25 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="53"/>
       <c r="B100" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C100" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D100" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E100" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F100" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G100" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H100" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -24787,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H101" s="55">
         <v>1096</v>
@@ -24813,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H102" s="55">
         <v>1074</v>
@@ -24839,7 +25031,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H103" s="55">
         <v>1391</v>
@@ -24865,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H104" s="55">
         <v>903</v>
@@ -24891,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H105" s="55">
         <v>1074</v>
@@ -24900,25 +25092,25 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="53"/>
       <c r="B106" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C106" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D106" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E106" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F106" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G106" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H106" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -25045,7 +25237,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H111" s="55">
         <v>1222</v>
@@ -25054,25 +25246,25 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="53"/>
       <c r="B112" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C112" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D112" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F112" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G112" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H112" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -25095,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H113" s="55">
         <v>1551</v>
@@ -25121,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H114" s="55">
         <v>2031</v>
@@ -25147,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H115" s="55">
         <v>1289</v>
@@ -25173,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H116" s="55">
         <v>664</v>
@@ -25199,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H117" s="55">
         <v>1799</v>
@@ -25208,25 +25400,25 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="53"/>
       <c r="B118" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C118" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D118" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E118" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F118" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G118" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H118" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -25249,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H119" s="55">
         <v>2111</v>
@@ -25275,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H120" s="55">
         <v>2069</v>
@@ -25301,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H121" s="55">
         <v>2729</v>
@@ -25327,7 +25519,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H122" s="55">
         <v>1599</v>
@@ -25353,7 +25545,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H123" s="55">
         <v>2069</v>
@@ -25362,25 +25554,25 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="53"/>
       <c r="B124" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C124" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D124" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E124" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F124" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G124" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H124" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -25403,7 +25595,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H125" s="55">
         <v>149</v>
@@ -25429,7 +25621,7 @@
         <v>-10</v>
       </c>
       <c r="G126" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H126" s="55">
         <v>70</v>
@@ -25455,7 +25647,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H127" s="55">
         <v>190</v>
@@ -25481,7 +25673,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H128" s="55">
         <v>248</v>
@@ -25516,25 +25708,25 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="53"/>
       <c r="B130" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D130" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F130" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G130" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H130" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -25661,7 +25853,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H135" s="55">
         <v>3579</v>
@@ -25670,25 +25862,25 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="53"/>
       <c r="B136" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C136" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D136" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E136" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F136" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G136" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H136" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -25711,7 +25903,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H137" s="55">
         <v>184</v>
@@ -25737,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H138" s="55">
         <v>2454</v>
@@ -25763,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H139" s="55">
         <v>2454</v>
@@ -25815,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H141" s="55">
         <v>877</v>
@@ -25824,25 +26016,25 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="53"/>
       <c r="B142" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C142" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E142" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F142" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -25865,7 +26057,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H143" s="55">
         <v>82</v>
@@ -25891,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H144" s="55">
         <v>82</v>
@@ -25917,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H145" s="55">
         <v>82</v>
@@ -25943,7 +26135,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H146" s="55">
         <v>165</v>
@@ -25978,25 +26170,25 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="53"/>
       <c r="B148" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E148" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -26019,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H149" s="55">
         <v>44</v>
@@ -26045,7 +26237,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H150" s="55">
         <v>27</v>
@@ -26071,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H151" s="55">
         <v>612</v>
@@ -26097,7 +26289,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H152" s="55">
         <v>164</v>
@@ -26123,7 +26315,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H153" s="55">
         <v>184</v>
@@ -26132,25 +26324,25 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="53"/>
       <c r="B154" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C154" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F154" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -26173,7 +26365,7 @@
         <v>100</v>
       </c>
       <c r="G155" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H155" s="55">
         <v>1040</v>
@@ -26199,7 +26391,7 @@
         <v>100</v>
       </c>
       <c r="G156" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H156" s="55">
         <v>2244</v>
@@ -26277,7 +26469,7 @@
         <v>100</v>
       </c>
       <c r="G159" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H159" s="55">
         <v>639</v>
@@ -26286,25 +26478,25 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="53"/>
       <c r="B160" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C160" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E160" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F160" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -26327,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H161" s="55">
         <v>1640</v>
@@ -26353,7 +26545,7 @@
         <v>24</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H162" s="55">
         <v>643</v>
@@ -26440,25 +26632,25 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="53"/>
       <c r="B166" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C166" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E166" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F166" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -26481,7 +26673,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H167" s="55">
         <v>2498</v>
@@ -26585,7 +26777,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H171" s="55">
         <v>6092</v>
@@ -26594,25 +26786,25 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="53"/>
       <c r="B172" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C172" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D172" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E172" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F172" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G172" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H172" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -26687,7 +26879,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H175" s="55">
         <v>7874</v>
@@ -26713,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H176" s="55">
         <v>8749</v>
@@ -26739,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H177" s="55">
         <v>7874</v>
@@ -26748,25 +26940,25 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="53"/>
       <c r="B178" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D178" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E178" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F178" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G178" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H178" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -26789,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H179" s="55">
         <v>164</v>
@@ -26815,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H180" s="55">
         <v>200</v>
@@ -26841,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H181" s="55">
         <v>200</v>
@@ -26867,7 +27059,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H182" s="55">
         <v>164</v>
@@ -26902,25 +27094,25 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="53"/>
       <c r="B184" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D184" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F184" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G184" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H184" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -26943,7 +27135,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H185" s="55">
         <v>286</v>
@@ -26969,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H186" s="55">
         <v>235</v>
@@ -26995,7 +27187,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H187" s="55">
         <v>235</v>
@@ -27021,7 +27213,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H188" s="55">
         <v>235</v>
@@ -27047,7 +27239,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H189" s="55">
         <v>235</v>
@@ -27056,25 +27248,25 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="53"/>
       <c r="B190" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C190" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D190" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E190" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F190" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G190" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H190" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -27097,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H191" s="55">
         <v>13482</v>
@@ -27123,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H192" s="55">
         <v>10622</v>
@@ -27149,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="G193" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H193" s="55">
         <v>10077</v>
@@ -27175,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="G194" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H194" s="55">
         <v>10077</v>
@@ -27201,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H195" s="55">
         <v>10622</v>
@@ -27210,25 +27402,25 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="53"/>
       <c r="B196" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C196" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D196" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E196" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F196" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G196" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H196" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -27251,7 +27443,7 @@
         <v>7510</v>
       </c>
       <c r="G197" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H197" s="55">
         <v>446</v>
@@ -27277,7 +27469,7 @@
         <v>7510</v>
       </c>
       <c r="G198" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H198" s="55">
         <v>378</v>
@@ -27303,7 +27495,7 @@
         <v>7510</v>
       </c>
       <c r="G199" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H199" s="55">
         <v>892</v>
@@ -27329,7 +27521,7 @@
         <v>7510</v>
       </c>
       <c r="G200" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H200" s="55">
         <v>1337</v>
@@ -27355,7 +27547,7 @@
         <v>7510</v>
       </c>
       <c r="G201" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H201" s="55">
         <v>292</v>
@@ -27364,25 +27556,25 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="53"/>
       <c r="B202" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C202" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D202" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E202" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F202" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G202" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H202" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -27405,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H203" s="55">
         <v>102</v>
@@ -27431,7 +27623,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H204" s="55">
         <v>102</v>
@@ -27457,7 +27649,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H205" s="55">
         <v>102</v>
@@ -27483,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H206" s="55">
         <v>102</v>
@@ -27509,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H207" s="55">
         <v>102</v>
@@ -27518,25 +27710,25 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="53"/>
       <c r="B208" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C208" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D208" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E208" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F208" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G208" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H208" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -27559,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H209" s="55">
         <v>37</v>
@@ -27585,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H210" s="55">
         <v>202</v>
@@ -27611,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H211" s="55">
         <v>65</v>
@@ -27637,7 +27829,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H212" s="55">
         <v>65</v>
@@ -27663,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H213" s="55">
         <v>22</v>
@@ -27672,25 +27864,25 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="53"/>
       <c r="B214" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C214" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D214" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E214" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F214" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G214" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H214" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -27713,7 +27905,7 @@
         <v>10</v>
       </c>
       <c r="G215" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H215" s="55">
         <v>1266</v>
@@ -27739,7 +27931,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H216" s="55">
         <v>2787</v>
@@ -27765,7 +27957,7 @@
         <v>10</v>
       </c>
       <c r="G217" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H217" s="55">
         <v>3153</v>
@@ -27791,7 +27983,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H218" s="55">
         <v>1801</v>
@@ -27800,25 +27992,25 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="53"/>
       <c r="B219" s="55" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C219" s="55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D219" s="55" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E219" s="55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F219" s="55" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G219" s="55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H219" s="55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -27841,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="G220" s="54" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H220" s="54">
         <v>100</v>
@@ -27867,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H221" s="55">
         <v>82</v>
@@ -27893,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H222" s="55">
         <v>82</v>
@@ -27919,7 +28111,7 @@
         <v>0</v>
       </c>
       <c r="G223" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H223" s="55">
         <v>82</v>
@@ -27945,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="G224" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H224" s="55">
         <v>164</v>
@@ -27954,25 +28146,25 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="53"/>
       <c r="B225" s="55" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C225" s="55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D225" s="55" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F225" s="55" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G225" s="55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H225" s="55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -27995,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="54" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H226" s="54">
         <v>605</v>
@@ -28021,7 +28213,7 @@
         <v>0</v>
       </c>
       <c r="G227" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H227" s="55">
         <v>235</v>
@@ -28047,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="G228" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H228" s="55">
         <v>932</v>
@@ -28073,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H229" s="55">
         <v>672</v>
@@ -28099,7 +28291,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H230" s="55">
         <v>672</v>
@@ -28108,25 +28300,25 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="53"/>
       <c r="B231" s="55" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C231" s="55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D231" s="55" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E231" s="55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F231" s="55" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G231" s="55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H231" s="55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -28149,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="54" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H232" s="54">
         <v>1249</v>
@@ -28227,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H235" s="55">
         <v>1939</v>
@@ -28253,7 +28445,7 @@
         <v>0</v>
       </c>
       <c r="G236" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H236" s="55">
         <v>1260</v>
@@ -28262,25 +28454,25 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="53"/>
       <c r="B237" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C237" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D237" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E237" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F237" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G237" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H237" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -28407,7 +28599,7 @@
         <v>0</v>
       </c>
       <c r="G242" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H242" s="55">
         <v>171</v>
@@ -28416,25 +28608,25 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="53"/>
       <c r="B243" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C243" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D243" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E243" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F243" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G243" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H243" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -28561,7 +28753,7 @@
         <v>0</v>
       </c>
       <c r="G248" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H248" s="55">
         <v>2626</v>
@@ -28570,25 +28762,25 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="53"/>
       <c r="B249" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C249" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D249" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E249" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F249" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G249" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H249" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -28611,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H250" s="55">
         <v>121</v>
@@ -28637,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H251" s="55">
         <v>254</v>
@@ -28663,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H252" s="55">
         <v>526</v>
@@ -28689,7 +28881,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H253" s="55">
         <v>480</v>
@@ -28715,7 +28907,7 @@
         <v>0</v>
       </c>
       <c r="G254" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H254" s="55">
         <v>1004</v>
@@ -28724,25 +28916,25 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="53"/>
       <c r="B255" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C255" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D255" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E255" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F255" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G255" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H255" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -28765,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="G256" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H256" s="55">
         <v>634</v>
@@ -28791,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H257" s="55">
         <v>670</v>
@@ -28817,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H258" s="55">
         <v>986</v>
@@ -28843,7 +29035,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H259" s="55">
         <v>318</v>
@@ -28869,7 +29061,7 @@
         <v>0</v>
       </c>
       <c r="G260" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H260" s="55">
         <v>670</v>
@@ -28878,25 +29070,25 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="53"/>
       <c r="B261" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C261" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D261" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E261" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F261" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G261" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H261" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -28919,7 +29111,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H262" s="55">
         <v>2460</v>
@@ -28945,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H263" s="55">
         <v>1795</v>
@@ -29023,7 +29215,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H266" s="55">
         <v>4323</v>
@@ -29032,25 +29224,25 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="53"/>
       <c r="B267" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C267" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D267" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E267" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F267" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G267" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H267" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -29073,7 +29265,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H268" s="55">
         <v>183</v>
@@ -29099,7 +29291,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H269" s="55">
         <v>183</v>
@@ -29125,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="G270" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H270" s="55">
         <v>76</v>
@@ -29151,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H271" s="55">
         <v>65</v>
@@ -29186,25 +29378,25 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="53"/>
       <c r="B273" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C273" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D273" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E273" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F273" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G273" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H273" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -29279,7 +29471,7 @@
         <v>100</v>
       </c>
       <c r="G276" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H276" s="55">
         <v>23</v>
@@ -29305,7 +29497,7 @@
         <v>-100</v>
       </c>
       <c r="G277" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H277" s="55">
         <v>7</v>
@@ -29331,7 +29523,7 @@
         <v>100</v>
       </c>
       <c r="G278" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H278" s="55">
         <v>31</v>
@@ -29340,25 +29532,25 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="53"/>
       <c r="B279" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C279" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D279" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E279" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F279" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G279" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H279" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -29433,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H282" s="55">
         <v>472</v>
@@ -29459,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H283" s="55">
         <v>472</v>
@@ -29485,7 +29677,7 @@
         <v>0</v>
       </c>
       <c r="G284" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H284" s="55">
         <v>165</v>
@@ -29494,25 +29686,25 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="53"/>
       <c r="B285" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C285" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D285" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E285" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F285" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G285" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H285" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -29587,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="G288" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H288" s="55">
         <v>5605</v>
@@ -29613,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="G289" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H289" s="55">
         <v>5605</v>
@@ -29639,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="G290" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H290" s="55">
         <v>3753</v>
@@ -29648,25 +29840,25 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="53"/>
       <c r="B291" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C291" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D291" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E291" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F291" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G291" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H291" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -29689,7 +29881,7 @@
         <v>0</v>
       </c>
       <c r="G292" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H292" s="55">
         <v>146</v>
@@ -29715,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="G293" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H293" s="55">
         <v>194</v>
@@ -29741,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="G294" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H294" s="55">
         <v>475</v>
@@ -29802,25 +29994,25 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="53"/>
       <c r="B297" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C297" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D297" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E297" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F297" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G297" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H297" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -29843,7 +30035,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H298" s="55">
         <v>53</v>
@@ -29869,7 +30061,7 @@
         <v>0</v>
       </c>
       <c r="G299" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H299" s="55">
         <v>52</v>
@@ -29895,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="G300" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H300" s="55">
         <v>60</v>
@@ -29921,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H301" s="55">
         <v>82</v>
@@ -29947,7 +30139,7 @@
         <v>0</v>
       </c>
       <c r="G302" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H302" s="55">
         <v>37</v>
@@ -29956,25 +30148,25 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="53"/>
       <c r="B303" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C303" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D303" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E303" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F303" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G303" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H303" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -29997,7 +30189,7 @@
         <v>10000</v>
       </c>
       <c r="G304" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H304" s="55">
         <v>8494</v>
@@ -30023,7 +30215,7 @@
         <v>10000</v>
       </c>
       <c r="G305" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H305" s="55">
         <v>8494</v>
@@ -30049,7 +30241,7 @@
         <v>10000</v>
       </c>
       <c r="G306" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H306" s="55">
         <v>8494</v>
@@ -30075,7 +30267,7 @@
         <v>10000</v>
       </c>
       <c r="G307" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H307" s="55">
         <v>8494</v>
@@ -30110,25 +30302,25 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="53"/>
       <c r="B309" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C309" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D309" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E309" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F309" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G309" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H309" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -30151,7 +30343,7 @@
         <v>1</v>
       </c>
       <c r="G310" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H310" s="55">
         <v>46181</v>
@@ -30177,7 +30369,7 @@
         <v>1</v>
       </c>
       <c r="G311" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H311" s="55">
         <v>18473</v>
@@ -30229,7 +30421,7 @@
         <v>1</v>
       </c>
       <c r="G313" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H313" s="55">
         <v>72856</v>
@@ -30264,25 +30456,25 @@
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="53"/>
       <c r="B315" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C315" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D315" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E315" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F315" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G315" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H315" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -30331,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H317" s="55">
         <v>800</v>
@@ -30418,25 +30610,25 @@
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="53"/>
       <c r="B321" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C321" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D321" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E321" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F321" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G321" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H321" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -30459,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="G322" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H322" s="55">
         <v>211</v>
@@ -30485,7 +30677,7 @@
         <v>0</v>
       </c>
       <c r="G323" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H323" s="55">
         <v>488</v>
@@ -30511,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="G324" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H324" s="55">
         <v>488</v>
@@ -30537,7 +30729,7 @@
         <v>0</v>
       </c>
       <c r="G325" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H325" s="55">
         <v>488</v>
@@ -30563,7 +30755,7 @@
         <v>0</v>
       </c>
       <c r="G326" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H326" s="55">
         <v>488</v>
@@ -30572,25 +30764,25 @@
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="53"/>
       <c r="B327" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C327" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D327" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E327" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F327" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G327" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H327" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -30613,7 +30805,7 @@
         <v>0</v>
       </c>
       <c r="G328" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H328" s="55">
         <v>3073</v>
@@ -30726,25 +30918,25 @@
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="53"/>
       <c r="B333" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C333" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D333" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E333" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F333" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G333" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H333" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -30845,7 +31037,7 @@
         <v>0</v>
       </c>
       <c r="G337" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H337" s="55">
         <v>544</v>
@@ -30871,7 +31063,7 @@
         <v>0</v>
       </c>
       <c r="G338" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H338" s="55">
         <v>544</v>
@@ -30880,25 +31072,25 @@
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="53"/>
       <c r="B339" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C339" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D339" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E339" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F339" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G339" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H339" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -30921,7 +31113,7 @@
         <v>0</v>
       </c>
       <c r="G340" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H340" s="55">
         <v>408</v>
@@ -30947,7 +31139,7 @@
         <v>0</v>
       </c>
       <c r="G341" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H341" s="55">
         <v>1488</v>
@@ -30973,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="G342" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H342" s="55">
         <v>887</v>
@@ -31034,25 +31226,25 @@
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="53"/>
       <c r="B345" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C345" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D345" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E345" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F345" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G345" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H345" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -31075,7 +31267,7 @@
         <v>0</v>
       </c>
       <c r="G346" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H346" s="55">
         <v>190</v>
@@ -31101,7 +31293,7 @@
         <v>0</v>
       </c>
       <c r="G347" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H347" s="55">
         <v>418</v>
@@ -31127,7 +31319,7 @@
         <v>0</v>
       </c>
       <c r="G348" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H348" s="55">
         <v>270</v>
@@ -31136,25 +31328,25 @@
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="53"/>
       <c r="B349" s="54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C349" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D349" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E349" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F349" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G349" s="54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H349" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -31177,7 +31369,7 @@
         <v>0</v>
       </c>
       <c r="G350" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H350" s="55">
         <v>95</v>
@@ -31203,7 +31395,7 @@
         <v>0</v>
       </c>
       <c r="G351" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H351" s="55">
         <v>203</v>
@@ -31229,7 +31421,7 @@
         <v>0</v>
       </c>
       <c r="G352" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H352" s="55">
         <v>334</v>
@@ -31255,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="G353" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H353" s="55">
         <v>213</v>
@@ -31281,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="G354" s="55" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H354" s="55">
         <v>260</v>
@@ -31293,6 +31485,4697 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="16" max="18" width="9.83203125" customWidth="1"/>
+    <col min="21" max="24" width="7.1640625" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="26" max="29" width="8.1640625" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA1" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF1" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG1" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH1" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI1" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>467046</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60">
+        <v>0</v>
+      </c>
+      <c r="F2" s="60">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="60">
+        <v>2835</v>
+      </c>
+      <c r="H2" s="60">
+        <v>10</v>
+      </c>
+      <c r="I2" s="60">
+        <v>3</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="60">
+        <v>0</v>
+      </c>
+      <c r="N2" s="60">
+        <v>0</v>
+      </c>
+      <c r="O2" s="60">
+        <v>5000000</v>
+      </c>
+      <c r="P2" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="60">
+        <v>47</v>
+      </c>
+      <c r="R2" s="60">
+        <v>62.3</v>
+      </c>
+      <c r="S2" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U2" s="60">
+        <v>0</v>
+      </c>
+      <c r="V2" s="60">
+        <v>2</v>
+      </c>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z2" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="60">
+        <v>700</v>
+      </c>
+      <c r="AD2" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF2" s="60">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>467047</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60">
+        <v>0</v>
+      </c>
+      <c r="F3" s="60">
+        <v>2003</v>
+      </c>
+      <c r="G3" s="60">
+        <v>2835</v>
+      </c>
+      <c r="H3" s="60">
+        <v>10</v>
+      </c>
+      <c r="I3" s="60">
+        <v>3</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="60">
+        <v>0</v>
+      </c>
+      <c r="N3" s="60">
+        <v>0</v>
+      </c>
+      <c r="O3" s="60">
+        <v>5000000</v>
+      </c>
+      <c r="P3" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="60">
+        <v>47</v>
+      </c>
+      <c r="R3" s="60">
+        <v>62.3</v>
+      </c>
+      <c r="S3" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U3" s="60">
+        <v>0</v>
+      </c>
+      <c r="V3" s="60">
+        <v>2</v>
+      </c>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z3" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF3" s="60">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <v>483198</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0</v>
+      </c>
+      <c r="F4" s="60">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="60">
+        <v>1596</v>
+      </c>
+      <c r="H4" s="60">
+        <v>10</v>
+      </c>
+      <c r="I4" s="60">
+        <v>5</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="60">
+        <v>0</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0</v>
+      </c>
+      <c r="O4" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P4" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>28</v>
+      </c>
+      <c r="R4" s="60">
+        <v>64.8</v>
+      </c>
+      <c r="S4" s="60">
+        <v>1</v>
+      </c>
+      <c r="T4" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U4" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V4" s="60">
+        <v>1</v>
+      </c>
+      <c r="W4" s="60">
+        <v>2</v>
+      </c>
+      <c r="X4" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z4" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="60">
+        <v>9630</v>
+      </c>
+      <c r="AC4" s="60">
+        <v>700</v>
+      </c>
+      <c r="AD4" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="60">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <v>483199</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0</v>
+      </c>
+      <c r="F5" s="60">
+        <v>2012</v>
+      </c>
+      <c r="G5" s="60">
+        <v>1596</v>
+      </c>
+      <c r="H5" s="60">
+        <v>10</v>
+      </c>
+      <c r="I5" s="60">
+        <v>5</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="60">
+        <v>0</v>
+      </c>
+      <c r="N5" s="60">
+        <v>0</v>
+      </c>
+      <c r="O5" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P5" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="60">
+        <v>28</v>
+      </c>
+      <c r="R5" s="60">
+        <v>64.8</v>
+      </c>
+      <c r="S5" s="60">
+        <v>1</v>
+      </c>
+      <c r="T5" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U5" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V5" s="60">
+        <v>1</v>
+      </c>
+      <c r="W5" s="60">
+        <v>2</v>
+      </c>
+      <c r="X5" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z5" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="60">
+        <v>3384</v>
+      </c>
+      <c r="AC5" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF5" s="60">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>483200</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0</v>
+      </c>
+      <c r="F6" s="60">
+        <v>2012</v>
+      </c>
+      <c r="G6" s="60">
+        <v>1596</v>
+      </c>
+      <c r="H6" s="60">
+        <v>10</v>
+      </c>
+      <c r="I6" s="60">
+        <v>5</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="60">
+        <v>0</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0</v>
+      </c>
+      <c r="O6" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P6" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="60">
+        <v>28</v>
+      </c>
+      <c r="R6" s="60">
+        <v>64.8</v>
+      </c>
+      <c r="S6" s="60">
+        <v>1</v>
+      </c>
+      <c r="T6" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U6" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V6" s="60">
+        <v>1</v>
+      </c>
+      <c r="W6" s="60">
+        <v>2</v>
+      </c>
+      <c r="X6" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z6" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="60">
+        <v>6616</v>
+      </c>
+      <c r="AC6" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF6" s="60">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>484661</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0</v>
+      </c>
+      <c r="F7" s="60">
+        <v>2011</v>
+      </c>
+      <c r="G7" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H7" s="60">
+        <v>50</v>
+      </c>
+      <c r="I7" s="60">
+        <v>5</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="60">
+        <v>0</v>
+      </c>
+      <c r="N7" s="60">
+        <v>0</v>
+      </c>
+      <c r="O7" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P7" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="60">
+        <v>28</v>
+      </c>
+      <c r="R7" s="60">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="S7" s="60">
+        <v>3</v>
+      </c>
+      <c r="T7" s="60">
+        <v>-0.1</v>
+      </c>
+      <c r="U7" s="60">
+        <v>0</v>
+      </c>
+      <c r="V7" s="60">
+        <v>1</v>
+      </c>
+      <c r="W7" s="60">
+        <v>1</v>
+      </c>
+      <c r="X7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z7" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="60">
+        <v>6955</v>
+      </c>
+      <c r="AC7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF7" s="60">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>491174</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0</v>
+      </c>
+      <c r="F8" s="60">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H8" s="60">
+        <v>40</v>
+      </c>
+      <c r="I8" s="60">
+        <v>5</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="60">
+        <v>0</v>
+      </c>
+      <c r="N8" s="60">
+        <v>0</v>
+      </c>
+      <c r="O8" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P8" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="60">
+        <v>28</v>
+      </c>
+      <c r="R8" s="60">
+        <v>189</v>
+      </c>
+      <c r="S8" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U8" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V8" s="60">
+        <v>1</v>
+      </c>
+      <c r="W8" s="60">
+        <v>2</v>
+      </c>
+      <c r="X8" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z8" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="60">
+        <v>42706</v>
+      </c>
+      <c r="AC8" s="60">
+        <v>700</v>
+      </c>
+      <c r="AD8" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF8" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>491175</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0</v>
+      </c>
+      <c r="F9" s="60">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H9" s="60">
+        <v>40</v>
+      </c>
+      <c r="I9" s="60">
+        <v>5</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="60">
+        <v>0</v>
+      </c>
+      <c r="N9" s="60">
+        <v>0</v>
+      </c>
+      <c r="O9" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P9" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="60">
+        <v>28</v>
+      </c>
+      <c r="R9" s="60">
+        <v>189</v>
+      </c>
+      <c r="S9" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U9" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V9" s="60">
+        <v>1</v>
+      </c>
+      <c r="W9" s="60">
+        <v>2</v>
+      </c>
+      <c r="X9" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z9" s="60">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="60">
+        <v>896</v>
+      </c>
+      <c r="AD9" s="60">
+        <v>42706</v>
+      </c>
+      <c r="AE9" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
+        <v>491176</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="F10" s="60">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H10" s="60">
+        <v>40</v>
+      </c>
+      <c r="I10" s="60">
+        <v>5</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0</v>
+      </c>
+      <c r="O10" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P10" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="60">
+        <v>28</v>
+      </c>
+      <c r="R10" s="60">
+        <v>189</v>
+      </c>
+      <c r="S10" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U10" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V10" s="60">
+        <v>1</v>
+      </c>
+      <c r="W10" s="60">
+        <v>2</v>
+      </c>
+      <c r="X10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z10" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
+        <v>491177</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0</v>
+      </c>
+      <c r="F11" s="60">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H11" s="60">
+        <v>40</v>
+      </c>
+      <c r="I11" s="60">
+        <v>5</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P11" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>28</v>
+      </c>
+      <c r="R11" s="60">
+        <v>189</v>
+      </c>
+      <c r="S11" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U11" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V11" s="60">
+        <v>1</v>
+      </c>
+      <c r="W11" s="60">
+        <v>2</v>
+      </c>
+      <c r="X11" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z11" s="60">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="59">
+        <v>500777</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="60">
+        <v>2006</v>
+      </c>
+      <c r="G12" s="60">
+        <v>1797</v>
+      </c>
+      <c r="H12" s="60">
+        <v>10</v>
+      </c>
+      <c r="I12" s="60">
+        <v>5</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="60">
+        <v>0</v>
+      </c>
+      <c r="N12" s="60">
+        <v>0</v>
+      </c>
+      <c r="O12" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P12" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="60">
+        <v>10</v>
+      </c>
+      <c r="R12" s="60">
+        <v>68</v>
+      </c>
+      <c r="S12" s="60">
+        <v>0</v>
+      </c>
+      <c r="T12" s="60">
+        <v>-0.35</v>
+      </c>
+      <c r="U12" s="60">
+        <v>0</v>
+      </c>
+      <c r="V12" s="60">
+        <v>1</v>
+      </c>
+      <c r="W12" s="60">
+        <v>2</v>
+      </c>
+      <c r="X12" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z12" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="60">
+        <v>71050</v>
+      </c>
+      <c r="AC12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF12" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
+        <v>501190</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="60">
+        <v>2001</v>
+      </c>
+      <c r="G13" s="60">
+        <v>1332</v>
+      </c>
+      <c r="H13" s="60">
+        <v>10</v>
+      </c>
+      <c r="I13" s="60">
+        <v>5</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="60">
+        <v>0</v>
+      </c>
+      <c r="N13" s="60">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P13" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="60">
+        <v>10</v>
+      </c>
+      <c r="R13" s="60">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="S13" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U13" s="60">
+        <v>0</v>
+      </c>
+      <c r="V13" s="60">
+        <v>1</v>
+      </c>
+      <c r="W13" s="60">
+        <v>2</v>
+      </c>
+      <c r="X13" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z13" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
+        <v>501191</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="60">
+        <v>2001</v>
+      </c>
+      <c r="G14" s="60">
+        <v>1332</v>
+      </c>
+      <c r="H14" s="60">
+        <v>10</v>
+      </c>
+      <c r="I14" s="60">
+        <v>5</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="60">
+        <v>0</v>
+      </c>
+      <c r="N14" s="60">
+        <v>0</v>
+      </c>
+      <c r="O14" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P14" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="60">
+        <v>10</v>
+      </c>
+      <c r="R14" s="60">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="S14" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U14" s="60">
+        <v>0</v>
+      </c>
+      <c r="V14" s="60">
+        <v>1</v>
+      </c>
+      <c r="W14" s="60">
+        <v>2</v>
+      </c>
+      <c r="X14" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z14" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="59">
+        <v>501749</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="60">
+        <v>2013</v>
+      </c>
+      <c r="G15" s="60">
+        <v>2143</v>
+      </c>
+      <c r="H15" s="60">
+        <v>30</v>
+      </c>
+      <c r="I15" s="60">
+        <v>5</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="60">
+        <v>0</v>
+      </c>
+      <c r="N15" s="60">
+        <v>0</v>
+      </c>
+      <c r="O15" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P15" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>28</v>
+      </c>
+      <c r="R15" s="60">
+        <v>188</v>
+      </c>
+      <c r="S15" s="60">
+        <v>2</v>
+      </c>
+      <c r="T15" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="U15" s="60">
+        <v>0</v>
+      </c>
+      <c r="V15" s="60">
+        <v>1</v>
+      </c>
+      <c r="W15" s="60">
+        <v>1</v>
+      </c>
+      <c r="X15" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z15" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="60">
+        <v>204641</v>
+      </c>
+      <c r="AC15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF15" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
+        <v>518859</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="60">
+        <v>2011</v>
+      </c>
+      <c r="G16" s="60">
+        <v>1598</v>
+      </c>
+      <c r="H16" s="60">
+        <v>10</v>
+      </c>
+      <c r="I16" s="60">
+        <v>5</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="60">
+        <v>0</v>
+      </c>
+      <c r="N16" s="60">
+        <v>0</v>
+      </c>
+      <c r="O16" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P16" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="60">
+        <v>10</v>
+      </c>
+      <c r="R16" s="60">
+        <v>51.9</v>
+      </c>
+      <c r="S16" s="60">
+        <v>3</v>
+      </c>
+      <c r="T16" s="60">
+        <v>-0.1</v>
+      </c>
+      <c r="U16" s="60">
+        <v>0</v>
+      </c>
+      <c r="V16" s="60">
+        <v>1</v>
+      </c>
+      <c r="W16" s="60">
+        <v>1</v>
+      </c>
+      <c r="X16" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z16" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF16" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>518860</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="60">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="60">
+        <v>1598</v>
+      </c>
+      <c r="H17" s="60">
+        <v>10</v>
+      </c>
+      <c r="I17" s="60">
+        <v>5</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="60">
+        <v>0</v>
+      </c>
+      <c r="N17" s="60">
+        <v>0</v>
+      </c>
+      <c r="O17" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P17" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="60">
+        <v>10</v>
+      </c>
+      <c r="R17" s="60">
+        <v>51.9</v>
+      </c>
+      <c r="S17" s="60">
+        <v>3</v>
+      </c>
+      <c r="T17" s="60">
+        <v>-0.1</v>
+      </c>
+      <c r="U17" s="60">
+        <v>0</v>
+      </c>
+      <c r="V17" s="60">
+        <v>1</v>
+      </c>
+      <c r="W17" s="60">
+        <v>1</v>
+      </c>
+      <c r="X17" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z17" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="60">
+        <v>13528</v>
+      </c>
+      <c r="AC17" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF17" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="59">
+        <v>519082</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="60">
+        <v>2003</v>
+      </c>
+      <c r="G18" s="60">
+        <v>1328</v>
+      </c>
+      <c r="H18" s="60">
+        <v>10</v>
+      </c>
+      <c r="I18" s="60">
+        <v>5</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="60">
+        <v>0</v>
+      </c>
+      <c r="N18" s="60">
+        <v>0</v>
+      </c>
+      <c r="O18" s="60">
+        <v>5000000</v>
+      </c>
+      <c r="P18" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="60">
+        <v>23</v>
+      </c>
+      <c r="R18" s="60">
+        <v>43.8</v>
+      </c>
+      <c r="S18" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U18" s="60">
+        <v>0</v>
+      </c>
+      <c r="V18" s="60">
+        <v>1</v>
+      </c>
+      <c r="W18" s="60">
+        <v>1</v>
+      </c>
+      <c r="X18" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z18" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="60">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="60">
+        <v>2000</v>
+      </c>
+      <c r="AC18" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF18" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="60">
+        <v>1.5509999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="59">
+        <v>522781</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="F19" s="60">
+        <v>1998</v>
+      </c>
+      <c r="G19" s="60">
+        <v>1995</v>
+      </c>
+      <c r="H19" s="60">
+        <v>10</v>
+      </c>
+      <c r="I19" s="60">
+        <v>5</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="60">
+        <v>0</v>
+      </c>
+      <c r="N19" s="60">
+        <v>0</v>
+      </c>
+      <c r="O19" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P19" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="60">
+        <v>28</v>
+      </c>
+      <c r="R19" s="60">
+        <v>82</v>
+      </c>
+      <c r="S19" s="60">
+        <v>4</v>
+      </c>
+      <c r="T19" s="60">
+        <v>0</v>
+      </c>
+      <c r="U19" s="60">
+        <v>0</v>
+      </c>
+      <c r="V19" s="60">
+        <v>1</v>
+      </c>
+      <c r="W19" s="60">
+        <v>1</v>
+      </c>
+      <c r="X19" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z19" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="60">
+        <v>6090</v>
+      </c>
+      <c r="AC19" s="60">
+        <v>1000</v>
+      </c>
+      <c r="AD19" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF19" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG19" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>522846</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+      <c r="F20" s="60">
+        <v>2005</v>
+      </c>
+      <c r="G20" s="60">
+        <v>1497</v>
+      </c>
+      <c r="H20" s="60">
+        <v>10</v>
+      </c>
+      <c r="I20" s="60">
+        <v>5</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" s="60">
+        <v>0</v>
+      </c>
+      <c r="N20" s="60">
+        <v>0</v>
+      </c>
+      <c r="O20" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P20" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="60">
+        <v>12</v>
+      </c>
+      <c r="R20" s="60">
+        <v>52.2</v>
+      </c>
+      <c r="S20" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U20" s="60">
+        <v>0</v>
+      </c>
+      <c r="V20" s="60">
+        <v>1</v>
+      </c>
+      <c r="W20" s="60">
+        <v>2</v>
+      </c>
+      <c r="X20" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="60" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z20" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>523622</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0</v>
+      </c>
+      <c r="F21" s="60">
+        <v>2014</v>
+      </c>
+      <c r="G21" s="60">
+        <v>1995</v>
+      </c>
+      <c r="H21" s="60">
+        <v>30</v>
+      </c>
+      <c r="I21" s="60">
+        <v>5</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="60">
+        <v>0</v>
+      </c>
+      <c r="N21" s="60">
+        <v>0</v>
+      </c>
+      <c r="O21" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P21" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="60">
+        <v>28</v>
+      </c>
+      <c r="R21" s="60">
+        <v>237</v>
+      </c>
+      <c r="S21" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U21" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="V21" s="60">
+        <v>1</v>
+      </c>
+      <c r="W21" s="60">
+        <v>1</v>
+      </c>
+      <c r="X21" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z21" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="60">
+        <v>20926</v>
+      </c>
+      <c r="AC21" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF21" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG21" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>523623</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0</v>
+      </c>
+      <c r="F22" s="60">
+        <v>2014</v>
+      </c>
+      <c r="G22" s="60">
+        <v>1995</v>
+      </c>
+      <c r="H22" s="60">
+        <v>30</v>
+      </c>
+      <c r="I22" s="60">
+        <v>5</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="60">
+        <v>0</v>
+      </c>
+      <c r="N22" s="60">
+        <v>0</v>
+      </c>
+      <c r="O22" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P22" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="60">
+        <v>28</v>
+      </c>
+      <c r="R22" s="60">
+        <v>237</v>
+      </c>
+      <c r="S22" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U22" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="V22" s="60">
+        <v>1</v>
+      </c>
+      <c r="W22" s="60">
+        <v>1</v>
+      </c>
+      <c r="X22" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z22" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="60">
+        <v>17142</v>
+      </c>
+      <c r="AC22" s="60">
+        <v>700</v>
+      </c>
+      <c r="AD22" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF22" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>523640</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="60">
+        <v>2014</v>
+      </c>
+      <c r="G23" s="60">
+        <v>2354</v>
+      </c>
+      <c r="H23" s="60">
+        <v>10</v>
+      </c>
+      <c r="I23" s="60">
+        <v>5</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="60">
+        <v>0</v>
+      </c>
+      <c r="N23" s="60">
+        <v>0</v>
+      </c>
+      <c r="O23" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P23" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="60">
+        <v>28</v>
+      </c>
+      <c r="R23" s="60">
+        <v>97.9</v>
+      </c>
+      <c r="S23" s="60">
+        <v>1</v>
+      </c>
+      <c r="T23" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U23" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="V23" s="60">
+        <v>1</v>
+      </c>
+      <c r="W23" s="60">
+        <v>2</v>
+      </c>
+      <c r="X23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z23" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="60">
+        <v>29558</v>
+      </c>
+      <c r="AC23" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF23" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG23" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="60">
+        <v>10000</v>
+      </c>
+      <c r="AI23" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>523641</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0</v>
+      </c>
+      <c r="F24" s="60">
+        <v>2014</v>
+      </c>
+      <c r="G24" s="60">
+        <v>2354</v>
+      </c>
+      <c r="H24" s="60">
+        <v>10</v>
+      </c>
+      <c r="I24" s="60">
+        <v>5</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="60">
+        <v>0</v>
+      </c>
+      <c r="N24" s="60">
+        <v>0</v>
+      </c>
+      <c r="O24" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P24" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="60">
+        <v>28</v>
+      </c>
+      <c r="R24" s="60">
+        <v>97.9</v>
+      </c>
+      <c r="S24" s="60">
+        <v>1</v>
+      </c>
+      <c r="T24" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U24" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="V24" s="60">
+        <v>1</v>
+      </c>
+      <c r="W24" s="60">
+        <v>2</v>
+      </c>
+      <c r="X24" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z24" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="60">
+        <v>58746</v>
+      </c>
+      <c r="AC24" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF24" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>523656</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>2012</v>
+      </c>
+      <c r="G25" s="60">
+        <v>1798</v>
+      </c>
+      <c r="H25" s="60">
+        <v>10</v>
+      </c>
+      <c r="I25" s="60">
+        <v>5</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="60">
+        <v>0</v>
+      </c>
+      <c r="N25" s="60">
+        <v>0</v>
+      </c>
+      <c r="O25" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P25" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="60">
+        <v>28</v>
+      </c>
+      <c r="R25" s="60">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S25" s="60">
+        <v>1</v>
+      </c>
+      <c r="T25" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U25" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V25" s="60">
+        <v>1</v>
+      </c>
+      <c r="W25" s="60">
+        <v>2</v>
+      </c>
+      <c r="X25" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z25" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="60">
+        <v>20193</v>
+      </c>
+      <c r="AC25" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF25" s="60">
+        <v>50</v>
+      </c>
+      <c r="AG25" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>523657</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <v>2012</v>
+      </c>
+      <c r="G26" s="60">
+        <v>1798</v>
+      </c>
+      <c r="H26" s="60">
+        <v>10</v>
+      </c>
+      <c r="I26" s="60">
+        <v>5</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="60">
+        <v>0</v>
+      </c>
+      <c r="N26" s="60">
+        <v>0</v>
+      </c>
+      <c r="O26" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="P26" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="60">
+        <v>28</v>
+      </c>
+      <c r="R26" s="60">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S26" s="60">
+        <v>1</v>
+      </c>
+      <c r="T26" s="60">
+        <v>-0.3</v>
+      </c>
+      <c r="U26" s="60">
+        <v>-0.6</v>
+      </c>
+      <c r="V26" s="60">
+        <v>1</v>
+      </c>
+      <c r="W26" s="60">
+        <v>2</v>
+      </c>
+      <c r="X26" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z26" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF26" s="60">
+        <v>50</v>
+      </c>
+      <c r="AG26" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>524879</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
+      <c r="F27" s="60">
+        <v>2002</v>
+      </c>
+      <c r="G27" s="60">
+        <v>1584</v>
+      </c>
+      <c r="H27" s="60">
+        <v>10</v>
+      </c>
+      <c r="I27" s="60">
+        <v>5</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="60">
+        <v>0</v>
+      </c>
+      <c r="N27" s="60">
+        <v>0</v>
+      </c>
+      <c r="O27" s="60">
+        <v>2000000</v>
+      </c>
+      <c r="P27" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="60">
+        <v>15</v>
+      </c>
+      <c r="R27" s="60">
+        <v>52.9</v>
+      </c>
+      <c r="S27" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U27" s="60">
+        <v>0</v>
+      </c>
+      <c r="V27" s="60">
+        <v>1</v>
+      </c>
+      <c r="W27" s="60">
+        <v>2</v>
+      </c>
+      <c r="X27" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z27" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="60">
+        <v>8598</v>
+      </c>
+      <c r="AC27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF27" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG27" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="60">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="59">
+        <v>527247</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60">
+        <v>0</v>
+      </c>
+      <c r="F28" s="60">
+        <v>2013</v>
+      </c>
+      <c r="G28" s="60">
+        <v>2351</v>
+      </c>
+      <c r="H28" s="60">
+        <v>10</v>
+      </c>
+      <c r="I28" s="60">
+        <v>3</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="60">
+        <v>0</v>
+      </c>
+      <c r="N28" s="60">
+        <v>0</v>
+      </c>
+      <c r="O28" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P28" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="60">
+        <v>15</v>
+      </c>
+      <c r="R28" s="60">
+        <v>51</v>
+      </c>
+      <c r="S28" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U28" s="60">
+        <v>-0.4</v>
+      </c>
+      <c r="V28" s="60">
+        <v>1</v>
+      </c>
+      <c r="W28" s="60">
+        <v>1</v>
+      </c>
+      <c r="X28" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z28" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF28" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG28" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>527248</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60">
+        <v>0</v>
+      </c>
+      <c r="F29" s="60">
+        <v>2013</v>
+      </c>
+      <c r="G29" s="60">
+        <v>2351</v>
+      </c>
+      <c r="H29" s="60">
+        <v>10</v>
+      </c>
+      <c r="I29" s="60">
+        <v>3</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="60">
+        <v>0</v>
+      </c>
+      <c r="N29" s="60">
+        <v>0</v>
+      </c>
+      <c r="O29" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P29" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="60">
+        <v>15</v>
+      </c>
+      <c r="R29" s="60">
+        <v>51</v>
+      </c>
+      <c r="S29" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U29" s="60">
+        <v>-0.4</v>
+      </c>
+      <c r="V29" s="60">
+        <v>1</v>
+      </c>
+      <c r="W29" s="60">
+        <v>1</v>
+      </c>
+      <c r="X29" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z29" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF29" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG29" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
+        <v>527249</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60">
+        <v>0</v>
+      </c>
+      <c r="F30" s="60">
+        <v>2013</v>
+      </c>
+      <c r="G30" s="60">
+        <v>2351</v>
+      </c>
+      <c r="H30" s="60">
+        <v>10</v>
+      </c>
+      <c r="I30" s="60">
+        <v>3</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="60">
+        <v>0</v>
+      </c>
+      <c r="N30" s="60">
+        <v>0</v>
+      </c>
+      <c r="O30" s="60">
+        <v>1000000</v>
+      </c>
+      <c r="P30" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="60">
+        <v>15</v>
+      </c>
+      <c r="R30" s="60">
+        <v>51</v>
+      </c>
+      <c r="S30" s="60">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="60">
+        <v>-0.38</v>
+      </c>
+      <c r="U30" s="60">
+        <v>-0.4</v>
+      </c>
+      <c r="V30" s="60">
+        <v>1</v>
+      </c>
+      <c r="W30" s="60">
+        <v>1</v>
+      </c>
+      <c r="X30" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z30" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="60">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="60">
+        <v>10000</v>
+      </c>
+      <c r="AC30" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF30" s="60">
+        <v>100</v>
+      </c>
+      <c r="AG30" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
+        <v>527489</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60">
+        <v>0</v>
+      </c>
+      <c r="F31" s="60">
+        <v>2014</v>
+      </c>
+      <c r="G31" s="60">
+        <v>1998</v>
+      </c>
+      <c r="H31" s="60">
+        <v>10</v>
+      </c>
+      <c r="I31" s="60">
+        <v>5</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="60">
+        <v>0</v>
+      </c>
+      <c r="N31" s="60">
+        <v>0</v>
+      </c>
+      <c r="O31" s="60">
+        <v>5000000</v>
+      </c>
+      <c r="P31" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="60">
+        <v>23</v>
+      </c>
+      <c r="R31" s="60">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="S31" s="60">
+        <v>2</v>
+      </c>
+      <c r="T31" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="U31" s="60">
+        <v>-0.2</v>
+      </c>
+      <c r="V31" s="60">
+        <v>1</v>
+      </c>
+      <c r="W31" s="60">
+        <v>1</v>
+      </c>
+      <c r="X31" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z31" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="60">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="60">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="60">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="48" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="N34" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="P34" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q34" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="R34" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="S34" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="T34" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="U34" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="V34" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="W34" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="X34" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y34" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z34" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA34" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB34" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC34" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD34" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE34" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF34" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG34" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH34" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI34" s="61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="65">
+        <v>52</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66">
+        <v>0</v>
+      </c>
+      <c r="F35" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H35" s="66">
+        <v>40</v>
+      </c>
+      <c r="I35" s="66">
+        <v>5</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K35" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="66">
+        <v>0</v>
+      </c>
+      <c r="N35" s="66">
+        <v>0</v>
+      </c>
+      <c r="O35" s="66">
+        <v>1474000</v>
+      </c>
+      <c r="P35" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="66">
+        <v>13965</v>
+      </c>
+      <c r="R35" s="66">
+        <v>288</v>
+      </c>
+      <c r="S35" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U35" s="66">
+        <v>0</v>
+      </c>
+      <c r="V35" s="66">
+        <v>1</v>
+      </c>
+      <c r="W35" s="66">
+        <v>1</v>
+      </c>
+      <c r="X35" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z35" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC35" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD35" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF35" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG35" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="61">
+        <v>53</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62">
+        <v>0</v>
+      </c>
+      <c r="F36" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G36" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H36" s="62">
+        <v>40</v>
+      </c>
+      <c r="I36" s="62">
+        <v>5</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K36" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="62">
+        <v>0</v>
+      </c>
+      <c r="N36" s="62">
+        <v>0</v>
+      </c>
+      <c r="O36" s="62">
+        <v>1474000</v>
+      </c>
+      <c r="P36" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="62">
+        <v>13965</v>
+      </c>
+      <c r="R36" s="62">
+        <v>288</v>
+      </c>
+      <c r="S36" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U36" s="62">
+        <v>0</v>
+      </c>
+      <c r="V36" s="62">
+        <v>1</v>
+      </c>
+      <c r="W36" s="62">
+        <v>1</v>
+      </c>
+      <c r="X36" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z36" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC36" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF36" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG36" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="65">
+        <v>54</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66">
+        <v>0</v>
+      </c>
+      <c r="F37" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G37" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H37" s="66">
+        <v>40</v>
+      </c>
+      <c r="I37" s="66">
+        <v>5</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K37" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="66">
+        <v>0</v>
+      </c>
+      <c r="N37" s="66">
+        <v>0</v>
+      </c>
+      <c r="O37" s="66">
+        <v>1474000</v>
+      </c>
+      <c r="P37" s="66">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="66">
+        <v>2769</v>
+      </c>
+      <c r="R37" s="66">
+        <v>288</v>
+      </c>
+      <c r="S37" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U37" s="66">
+        <v>0</v>
+      </c>
+      <c r="V37" s="66">
+        <v>1</v>
+      </c>
+      <c r="W37" s="66">
+        <v>1</v>
+      </c>
+      <c r="X37" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z37" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC37" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD37" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF37" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG37" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="61">
+        <v>55</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62">
+        <v>0</v>
+      </c>
+      <c r="F38" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G38" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H38" s="62">
+        <v>40</v>
+      </c>
+      <c r="I38" s="62">
+        <v>5</v>
+      </c>
+      <c r="J38" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K38" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="62">
+        <v>0</v>
+      </c>
+      <c r="N38" s="62">
+        <v>0</v>
+      </c>
+      <c r="O38" s="62">
+        <v>1474000</v>
+      </c>
+      <c r="P38" s="62">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="62">
+        <v>2769</v>
+      </c>
+      <c r="R38" s="62">
+        <v>288</v>
+      </c>
+      <c r="S38" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U38" s="62">
+        <v>0</v>
+      </c>
+      <c r="V38" s="62">
+        <v>1</v>
+      </c>
+      <c r="W38" s="62">
+        <v>1</v>
+      </c>
+      <c r="X38" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z38" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC38" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF38" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG38" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="65">
+        <v>56</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66">
+        <v>0</v>
+      </c>
+      <c r="F39" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G39" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H39" s="66">
+        <v>40</v>
+      </c>
+      <c r="I39" s="66">
+        <v>5</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K39" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="M39" s="66">
+        <v>3000000</v>
+      </c>
+      <c r="N39" s="66">
+        <v>0</v>
+      </c>
+      <c r="O39" s="66">
+        <v>6000000</v>
+      </c>
+      <c r="P39" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="66">
+        <v>1280</v>
+      </c>
+      <c r="R39" s="66">
+        <v>288</v>
+      </c>
+      <c r="S39" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U39" s="66">
+        <v>0</v>
+      </c>
+      <c r="V39" s="66">
+        <v>1</v>
+      </c>
+      <c r="W39" s="66">
+        <v>1</v>
+      </c>
+      <c r="X39" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z39" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC39" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD39" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF39" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG39" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="61">
+        <v>57</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62">
+        <v>0</v>
+      </c>
+      <c r="F40" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G40" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H40" s="62">
+        <v>40</v>
+      </c>
+      <c r="I40" s="62">
+        <v>5</v>
+      </c>
+      <c r="J40" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K40" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="M40" s="62">
+        <v>3000000</v>
+      </c>
+      <c r="N40" s="62">
+        <v>0</v>
+      </c>
+      <c r="O40" s="62">
+        <v>6000000</v>
+      </c>
+      <c r="P40" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="62">
+        <v>1280</v>
+      </c>
+      <c r="R40" s="62">
+        <v>288</v>
+      </c>
+      <c r="S40" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U40" s="62">
+        <v>0</v>
+      </c>
+      <c r="V40" s="62">
+        <v>1</v>
+      </c>
+      <c r="W40" s="62">
+        <v>1</v>
+      </c>
+      <c r="X40" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z40" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC40" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF40" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG40" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="65">
+        <v>58</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66">
+        <v>0</v>
+      </c>
+      <c r="F41" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H41" s="66">
+        <v>40</v>
+      </c>
+      <c r="I41" s="66">
+        <v>5</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K41" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0</v>
+      </c>
+      <c r="N41" s="66">
+        <v>0</v>
+      </c>
+      <c r="O41" s="66">
+        <v>500000</v>
+      </c>
+      <c r="P41" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="66">
+        <v>973</v>
+      </c>
+      <c r="R41" s="66">
+        <v>288</v>
+      </c>
+      <c r="S41" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U41" s="66">
+        <v>0</v>
+      </c>
+      <c r="V41" s="66">
+        <v>1</v>
+      </c>
+      <c r="W41" s="66">
+        <v>1</v>
+      </c>
+      <c r="X41" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z41" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC41" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD41" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF41" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG41" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="61">
+        <v>59</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62">
+        <v>0</v>
+      </c>
+      <c r="F42" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G42" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H42" s="62">
+        <v>40</v>
+      </c>
+      <c r="I42" s="62">
+        <v>5</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K42" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="M42" s="62">
+        <v>0</v>
+      </c>
+      <c r="N42" s="62">
+        <v>0</v>
+      </c>
+      <c r="O42" s="62">
+        <v>500000</v>
+      </c>
+      <c r="P42" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="62">
+        <v>973</v>
+      </c>
+      <c r="R42" s="62">
+        <v>288</v>
+      </c>
+      <c r="S42" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U42" s="62">
+        <v>0</v>
+      </c>
+      <c r="V42" s="62">
+        <v>1</v>
+      </c>
+      <c r="W42" s="62">
+        <v>1</v>
+      </c>
+      <c r="X42" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z42" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC42" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF42" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG42" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="65">
+        <v>60</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66">
+        <v>0</v>
+      </c>
+      <c r="F43" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G43" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H43" s="66">
+        <v>40</v>
+      </c>
+      <c r="I43" s="66">
+        <v>5</v>
+      </c>
+      <c r="J43" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K43" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M43" s="66">
+        <v>0</v>
+      </c>
+      <c r="N43" s="66">
+        <v>3000000</v>
+      </c>
+      <c r="O43" s="66">
+        <v>12000000</v>
+      </c>
+      <c r="P43" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="66">
+        <v>887</v>
+      </c>
+      <c r="R43" s="66">
+        <v>288</v>
+      </c>
+      <c r="S43" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U43" s="66">
+        <v>0</v>
+      </c>
+      <c r="V43" s="66">
+        <v>1</v>
+      </c>
+      <c r="W43" s="66">
+        <v>1</v>
+      </c>
+      <c r="X43" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z43" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC43" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD43" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF43" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG43" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="61">
+        <v>61</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62">
+        <v>0</v>
+      </c>
+      <c r="F44" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G44" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H44" s="62">
+        <v>40</v>
+      </c>
+      <c r="I44" s="62">
+        <v>5</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K44" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="M44" s="62">
+        <v>0</v>
+      </c>
+      <c r="N44" s="62">
+        <v>3000000</v>
+      </c>
+      <c r="O44" s="62">
+        <v>12000000</v>
+      </c>
+      <c r="P44" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="62">
+        <v>887</v>
+      </c>
+      <c r="R44" s="62">
+        <v>288</v>
+      </c>
+      <c r="S44" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U44" s="62">
+        <v>0</v>
+      </c>
+      <c r="V44" s="62">
+        <v>1</v>
+      </c>
+      <c r="W44" s="62">
+        <v>1</v>
+      </c>
+      <c r="X44" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z44" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC44" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF44" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG44" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="65">
+        <v>62</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66">
+        <v>0</v>
+      </c>
+      <c r="F45" s="66">
+        <v>2011</v>
+      </c>
+      <c r="G45" s="66">
+        <v>3456</v>
+      </c>
+      <c r="H45" s="66">
+        <v>40</v>
+      </c>
+      <c r="I45" s="66">
+        <v>5</v>
+      </c>
+      <c r="J45" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K45" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M45" s="66">
+        <v>0</v>
+      </c>
+      <c r="N45" s="66">
+        <v>0</v>
+      </c>
+      <c r="O45" s="66">
+        <v>3000000</v>
+      </c>
+      <c r="P45" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="66">
+        <v>479</v>
+      </c>
+      <c r="R45" s="66">
+        <v>288</v>
+      </c>
+      <c r="S45" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="66">
+        <v>-0.38</v>
+      </c>
+      <c r="U45" s="66">
+        <v>0</v>
+      </c>
+      <c r="V45" s="66">
+        <v>1</v>
+      </c>
+      <c r="W45" s="66">
+        <v>1</v>
+      </c>
+      <c r="X45" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z45" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="66">
+        <v>17426</v>
+      </c>
+      <c r="AC45" s="66">
+        <v>700</v>
+      </c>
+      <c r="AD45" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF45" s="66">
+        <v>100</v>
+      </c>
+      <c r="AG45" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="66">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="66">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="61">
+        <v>63</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62">
+        <v>0</v>
+      </c>
+      <c r="F46" s="62">
+        <v>2011</v>
+      </c>
+      <c r="G46" s="62">
+        <v>3456</v>
+      </c>
+      <c r="H46" s="62">
+        <v>40</v>
+      </c>
+      <c r="I46" s="62">
+        <v>5</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="M46" s="62">
+        <v>0</v>
+      </c>
+      <c r="N46" s="62">
+        <v>0</v>
+      </c>
+      <c r="O46" s="62">
+        <v>3000000</v>
+      </c>
+      <c r="P46" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="62">
+        <v>479</v>
+      </c>
+      <c r="R46" s="62">
+        <v>288</v>
+      </c>
+      <c r="S46" s="62">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="62">
+        <v>-0.38</v>
+      </c>
+      <c r="U46" s="62">
+        <v>0</v>
+      </c>
+      <c r="V46" s="62">
+        <v>1</v>
+      </c>
+      <c r="W46" s="62">
+        <v>1</v>
+      </c>
+      <c r="X46" s="62">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z46" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="62">
+        <v>18300</v>
+      </c>
+      <c r="AC46" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF46" s="62">
+        <v>100</v>
+      </c>
+      <c r="AG46" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="62">
+        <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -31362,7 +36245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -31432,7 +36315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -31540,12 +36423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32204,7 +37087,7 @@
         <v>451</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -32227,7 +37110,7 @@
         <v>454</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -32310,7 +37193,7 @@
         <v>459</v>
       </c>
       <c r="G38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -32529,7 +37412,7 @@
         <v>451</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -32588,7 +37471,7 @@
         <v>475</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">

--- a/VariableExplanationV2_ching.xlsx
+++ b/VariableExplanationV2_ching.xlsx
@@ -31489,12 +31489,12 @@
   <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="Q8" sqref="Q8:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" customWidth="1"/>
@@ -31611,7 +31611,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59">
         <v>467046</v>
       </c>
@@ -31712,7 +31712,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59">
         <v>467047</v>
       </c>
@@ -31813,7 +31813,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59">
         <v>483198</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
         <v>483199</v>
       </c>
@@ -32027,7 +32027,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <v>483200</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <v>484661</v>
       </c>
@@ -32669,7 +32669,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
         <v>500777</v>
       </c>
@@ -32776,7 +32776,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
         <v>501190</v>
       </c>
@@ -32881,7 +32881,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
         <v>501191</v>
       </c>
@@ -32986,7 +32986,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <v>501749</v>
       </c>
@@ -33093,7 +33093,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <v>518859</v>
       </c>
@@ -33200,7 +33200,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
         <v>518860</v>
       </c>
@@ -33307,7 +33307,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <v>519082</v>
       </c>
@@ -33412,7 +33412,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
         <v>522781</v>
       </c>
@@ -33519,7 +33519,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>522846</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <v>523622</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
         <v>523623</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
         <v>523640</v>
       </c>
@@ -33947,7 +33947,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="59">
         <v>523641</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="59">
         <v>523656</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="59">
         <v>523657</v>
       </c>
@@ -34268,7 +34268,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="59">
         <v>524879</v>
       </c>
@@ -34373,7 +34373,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="59">
         <v>527247</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
         <v>527248</v>
       </c>
@@ -34583,7 +34583,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="59">
         <v>527249</v>
       </c>
@@ -34688,7 +34688,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59">
         <v>527489</v>
       </c>

--- a/VariableExplanationV2_ching.xlsx
+++ b/VariableExplanationV2_ching.xlsx
@@ -20,6 +20,7 @@
     <sheet name="test_renewal" sheetId="15" r:id="rId6"/>
     <sheet name="車系代號" sheetId="12" r:id="rId7"/>
     <sheet name="險種分類及自負額說明" sheetId="13" r:id="rId8"/>
+    <sheet name="list" sheetId="24" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$F$1:$G$20</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="586">
   <si>
     <t>Policy Number</t>
   </si>
@@ -2439,6 +2440,99 @@
 20000 0.02729630135116692
 30000 0.01061522830323158
 50000 0.0060658447447037595</t>
+  </si>
+  <si>
+    <t>1. . classifier 0 1 -&gt;  regress</t>
+  </si>
+  <si>
+    <t>2. 性別 年齡 group -&gt; column</t>
+  </si>
+  <si>
+    <t>3. 重置成本 （萬）</t>
+  </si>
+  <si>
+    <t>4. 車過戶 保單轉移嗎？</t>
+  </si>
+  <si>
+    <t>5. Insured'ID groupby 要保人身份 1.2.3  看 premium next premium 變化的pattern</t>
+  </si>
+  <si>
+    <t>6. 加每個ID擁有車輛數當作feature</t>
+  </si>
+  <si>
+    <t>7. cancellation 可考慮以第四級計算</t>
+  </si>
+  <si>
+    <t>7.1 有可能是0123級嗎？</t>
+  </si>
+  <si>
+    <t>8. 分析 重置成本 與廠牌1 2 車年份的 分佈 （有空做）</t>
+  </si>
+  <si>
+    <t>9. insurance amount 123 加總放進去會誤導！</t>
+  </si>
+  <si>
+    <t>10. coverge 負號的 加一欄位在</t>
+  </si>
+  <si>
+    <t>10.1 確認一下  -負號 是不是 next premium就0了</t>
+  </si>
+  <si>
+    <t>11. coverage absolute / percentage 應該分兩籃</t>
+  </si>
+  <si>
+    <t>12. 針對三種險種看 amount1 2 3 分佈</t>
+  </si>
+  <si>
+    <t>13. distribution channel v.s. prioir policy number / next premium = 0 ( 看有沒有很爛的營業處）</t>
+  </si>
+  <si>
+    <t>14.   可切一個 飛車險保單的區間 0  與非0 或大魚5</t>
+  </si>
+  <si>
+    <t>15. 預測下一年lia_class, plia_acc pdmg_acc based on前一年出險次數 （分3個）</t>
+  </si>
+  <si>
+    <t>16. 拿KNN補 ibirth 值</t>
+  </si>
+  <si>
+    <t>16.1 或法人 自然人分開跑  不用ＫＮＮ了</t>
+  </si>
+  <si>
+    <t>16.2 分完自然法人 再補40000自然人 ibirth</t>
+  </si>
+  <si>
+    <t>17. fsex法人＋nan 約等於 ibirth nan</t>
+  </si>
+  <si>
+    <t>18. 造勢比例</t>
+  </si>
+  <si>
+    <t>19. Groupby出險原因看accident date 的分佈</t>
+  </si>
+  <si>
+    <t>20. 出險保單比例（各分公司）</t>
+  </si>
+  <si>
+    <t>可以過戶，但建議不要 因為怕保單剩餘價值認定有爭議 建議退保 再加保</t>
+  </si>
+  <si>
+    <t>新戶</t>
+  </si>
+  <si>
+    <t>舊戶</t>
+  </si>
+  <si>
+    <t>不用以新戶算 以原始-1 - 19!</t>
+  </si>
+  <si>
+    <t>有可能 不過4級比123多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not zero: 82 部分退保 ( 2.3%)
+zero: 3478
+nan, not in training: 1558 (30.4%) 
+Overall: 5118   ( 退保Unique ID) </t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2762,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2744,6 +2838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2924,7 +3030,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3106,11 +3212,19 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3129,6 +3243,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6807200" y="1422400"/>
+          <a:ext cx="10058400" cy="2268728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3423,8 +3586,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4600,8 +4763,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I27"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -22015,7 +22178,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22715,8 +22878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22762,21 +22925,21 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="120" t="s">
         <v>519</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="89"/>
       <c r="G6" s="85" t="s">
         <v>520</v>
       </c>
-      <c r="O6" s="116" t="s">
+      <c r="O6" s="121" t="s">
         <v>526</v>
       </c>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
@@ -23664,6 +23827,9 @@
       <c r="L42" s="73"/>
     </row>
     <row r="48" spans="2:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="F48" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G48" t="s">
         <v>298</v>
       </c>
@@ -23734,7 +23900,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H49" s="31" t="s">
         <v>133</v>
       </c>
@@ -23802,7 +23968,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H50" s="31" t="s">
         <v>125</v>
       </c>
@@ -23870,10 +24036,13 @@
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H51" s="110"/>
     </row>
-    <row r="52" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="F52" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G52" t="s">
         <v>299</v>
       </c>
@@ -23944,7 +24113,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H53" s="109" t="s">
         <v>133</v>
       </c>
@@ -24012,7 +24181,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="54" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H54" s="31" t="s">
         <v>125</v>
       </c>
@@ -24080,10 +24249,13 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H55" s="110"/>
     </row>
-    <row r="56" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="F56" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G56" t="s">
         <v>536</v>
       </c>
@@ -24130,7 +24302,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H57" s="31" t="s">
         <v>133</v>
       </c>
@@ -24172,7 +24344,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="58" spans="7:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:29" ht="19" x14ac:dyDescent="0.25">
       <c r="H58" s="109" t="s">
         <v>125</v>
       </c>
@@ -24371,7 +24543,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24471,6 +24643,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:A7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -24478,8 +24653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25774,4 +25949,188 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="117" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>559</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="115" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="117" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>583</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q7" s="115" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="115" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="117" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="117" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>567</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>585</v>
+      </c>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+    </row>
+    <row r="13" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="115" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="117" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="115" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="117" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="115" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="117" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="115" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="117" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="115" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="117" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="115" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="117" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F12:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VariableExplanationV2_ching.xlsx
+++ b/VariableExplanationV2_ching.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all_columns" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="586">
   <si>
     <t>Policy Number</t>
   </si>
@@ -22177,8 +22177,8 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24653,8 +24653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24665,871 +24665,862 @@
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>550</v>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="39"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="E3" s="31" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="39"/>
+        <v>422</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="E4" s="31" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="F4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>551</v>
+        <v>424</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>55</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="39"/>
+        <v>478</v>
+      </c>
+      <c r="G5" s="113">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>56</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="E6" s="31" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G7" s="114" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="31" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>135</v>
-      </c>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>3</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="39"/>
       <c r="E9" s="31" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
-      </c>
-      <c r="G9" s="112" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>137</v>
+        <v>551</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D11" s="39"/>
       <c r="E11" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>137</v>
+        <v>552</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="39"/>
       <c r="E13" s="31" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>142</v>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>9</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>144</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>10</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
-      </c>
-      <c r="G15" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="E16" s="31" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F16" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>142</v>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>17</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F17" t="s">
-        <v>427</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="G17" s="112" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" s="112" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>25</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>142</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F19" t="s">
-        <v>431</v>
-      </c>
-      <c r="G19" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>152</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>31</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="F20" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="G20" s="111" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>32</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G21" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>33</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" t="s">
+        <v>452</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>34</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="F21" t="s">
-        <v>435</v>
-      </c>
-      <c r="G21" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>137</v>
-      </c>
       <c r="E23" s="31" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F23" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="19" t="s">
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>35</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F24" t="s">
         <v>405</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F25" t="s">
         <v>405</v>
       </c>
-      <c r="H25" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="F26" t="s">
         <v>405</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="19" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>45</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="G27" s="112" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>46</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="39"/>
       <c r="E28" s="31" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="F28" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>137</v>
-      </c>
+    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>47</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="31" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="F29" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>137</v>
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>48</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>49</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="F31" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="F31" t="s">
-        <v>447</v>
-      </c>
-      <c r="G31" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="F32" t="s">
-        <v>449</v>
-      </c>
-      <c r="G32" s="111" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>449</v>
-      </c>
-      <c r="G33" s="111" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
-      </c>
-      <c r="G34" s="111" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>137</v>
-      </c>
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="31" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="F35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>35</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>137</v>
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F36" t="s">
-        <v>405</v>
+        <v>427</v>
+      </c>
+      <c r="G36" s="111" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>36</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>137</v>
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
-        <v>405</v>
+        <v>431</v>
+      </c>
+      <c r="G37" s="111" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="F38" t="s">
-        <v>457</v>
-      </c>
-      <c r="G38" t="s">
-        <v>544</v>
+        <v>433</v>
+      </c>
+      <c r="G38" s="111" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>435</v>
+      </c>
+      <c r="G39" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>437</v>
+      </c>
+      <c r="G40" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="F41" t="s">
         <v>405</v>
@@ -25537,39 +25528,39 @@
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="F42" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>42</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="39" t="s">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="F43" t="s">
         <v>405</v>
@@ -25577,19 +25568,19 @@
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="F44" t="s">
         <v>405</v>
@@ -25597,354 +25588,354 @@
     </row>
     <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="F45" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>45</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="39" t="s">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
-      </c>
-      <c r="G46" s="112" t="s">
-        <v>546</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>46</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="39"/>
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="E47" s="31" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="F47" t="s">
+        <v>447</v>
+      </c>
+      <c r="G47" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F48" t="s">
+        <v>457</v>
+      </c>
+      <c r="G48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="F49" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>47</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="F48" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>48</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="F49" t="s">
-        <v>449</v>
-      </c>
-      <c r="G49" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>49</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="39"/>
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="E50" s="31" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F50" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="19"/>
+        <v>174</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="E51" s="31" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F51" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F52" t="s">
-        <v>473</v>
-      </c>
-      <c r="G52" s="111" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
-        <v>52</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>187</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>43</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="F53" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>53</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>189</v>
+    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>44</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F54" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>54</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>137</v>
-      </c>
+    <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="19"/>
       <c r="E55" s="31" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F55" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
-      </c>
-      <c r="G56" s="113">
-        <v>0.1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="G56" s="111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F57" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F59" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="F61" t="s">
-        <v>405</v>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D61">
-    <sortCondition ref="A2:A61"/>
+  <sortState ref="A1:H61">
+    <sortCondition ref="B1:B61"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
